--- a/inputUrl.xlsx
+++ b/inputUrl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5F61C-3271-E14D-B033-967AAA6A0E98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E1FA88-0B4D-6242-8FE9-AEF581CE4F8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>https://mnrate.com/search?i=All&amp;kwd=&amp;s=&amp;np_min=3000&amp;np_max=5000</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://mnrate.com/search?i=Kitchen&amp;kwd=&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;nppp_min=120&amp;s=r&amp;tn_min=2&amp;tn_max=&amp;p=2</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/b/?node=2017189051&amp;ref_=Oct_CateC_89415051_1&amp;pf_rd_p=3c82689b-c12f-558b-a9e1-ed537f77244f&amp;pf_rd_s=merchandised-search-4&amp;pf_rd_t=101&amp;pf_rd_i=89415051&amp;pf_rd_m=AN1VRQENFRJN5&amp;pf_rd_r=6HV7NFAHVZ8CTAXSRRPN&amp;pf_rd_r=6HV7NFAHVZ8CTAXSRRPN&amp;pf_rd_p=3c82689b-c12f-558b-a9e1-ed537f77244f</t>
   </si>
   <si>
     <t>https://www.amazon.co.jp/s?bbn=3828871&amp;rh=n%3A3828871%2Cp_n_availability%3A2227307051%2Cp_36%3A150000-200000&amp;qid=1558016616&amp;ref=lp_3828871_nr_p_n_availability_1</t>
@@ -44,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,11 +52,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <u/>
@@ -92,18 +81,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -385,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -400,36 +386,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{8A89DE5B-F2BC-4A4B-8E43-EBB68F9B4790}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.amazon.co.jp/b/?node=2017189051&amp;ref_=Oct_CateC_89415051_1&amp;pf_rd_p=3c82689b-c12f-558b-a9e1-ed537f77244f&amp;pf_rd_s=merchandised-search-4&amp;pf_rd_t=101&amp;pf_rd_i=89415051&amp;pf_rd_m=AN1VRQENFRJN5&amp;pf_rd_r=6HV7NFAHVZ8CTAXSRRPN&amp;pf_rd_r=6HV7NFAHVZ8CTAXSRRPN&amp;pf_rd_p=3c82689b-c12f-558b-a9e1-ed537f77244f" xr:uid="{5FD61CED-9A20-4161-9B61-92C2BC64FA34}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{BED12976-ACC0-4B4C-BA43-EDE2201D1B61}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8A89DE5B-F2BC-4A4B-8E43-EBB68F9B4790}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{BED12976-ACC0-4B4C-BA43-EDE2201D1B61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/inputUrl.xlsx
+++ b/inputUrl.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E1FA88-0B4D-6242-8FE9-AEF581CE4F8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF8291-69B8-E742-86BD-2683FEA577F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,23 +22,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>https://mnrate.com/search?i=Kitchen&amp;kwd=&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;nppp_min=120&amp;s=r&amp;tn_min=2&amp;tn_max=&amp;p=2</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/s?bbn=3828871&amp;rh=n%3A3828871%2Cp_n_availability%3A2227307051%2Cp_36%3A150000-200000&amp;qid=1558016616&amp;ref=lp_3828871_nr_p_n_availability_1</t>
-  </si>
-  <si>
     <t>amazon</t>
   </si>
   <si>
     <t>mnrate</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/s?i=kitchen&amp;bbn=3828871&amp;rh=n%3A3828871%2Cp_n_availability%3A2227307051%2Cp_36%3A150000-200000&amp;page={}&amp;qid=1558190853&amp;ref=sr_pg_2</t>
+  </si>
+  <si>
+    <t>https://mnrate.com/search?i=Kitchen&amp;kwd=&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;nppp_min=120&amp;s=r&amp;tn_min=2&amp;tn_max=&amp;p={}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +57,18 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +95,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -374,7 +387,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -386,27 +399,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8A89DE5B-F2BC-4A4B-8E43-EBB68F9B4790}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{BED12976-ACC0-4B4C-BA43-EDE2201D1B61}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CF9914F4-B499-4240-97D2-E990F6AB9CB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/inputUrl.xlsx
+++ b/inputUrl.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF8291-69B8-E742-86BD-2683FEA577F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18A6388-B608-974F-B8A8-BFA1273FBCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,17 +28,17 @@
     <t>mnrate</t>
   </si>
   <si>
-    <t>https://www.amazon.co.jp/s?i=kitchen&amp;bbn=3828871&amp;rh=n%3A3828871%2Cp_n_availability%3A2227307051%2Cp_36%3A150000-200000&amp;page={}&amp;qid=1558190853&amp;ref=sr_pg_2</t>
+    <t>https://mnrate.com/search?i=Grocery&amp;kwd=&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;tn_min=0&amp;tn_max=0&amp;s=r&amp;p={}</t>
   </si>
   <si>
-    <t>https://mnrate.com/search?i=Kitchen&amp;kwd=&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;ex_asa%5B%5D=e&amp;ex_asa%5B%5D=p&amp;nppp_min=120&amp;s=r&amp;tn_min=2&amp;tn_max=&amp;p={}</t>
+    <t>https://www.amazon.co.jp/s?k=クール&amp;i=pets&amp;rh=p_n_availability%3A2227307051&amp;dc&amp;page={}&amp;qid=1558939256&amp;ref=sr_pg_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,18 +57,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,14 +83,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -384,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -405,20 +392,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CF9914F4-B499-4240-97D2-E990F6AB9CB1}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7787327F-09A4-9740-95EC-C6D31C93C732}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.amazon.co.jp/s?k=%E3%82%AF%E3%83%BC%E3%83%AB&amp;i=pets&amp;rh=p_n_availability%3A2227307051&amp;dc&amp;page=" xr:uid="{14FC9161-8F44-C448-A8DF-725A5A515CF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>